--- a/includes/worklog_evaluation/May-2022/Test Test_worklog.xlsx
+++ b/includes/worklog_evaluation/May-2022/Test Test_worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>TEAM:</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Créer une extension WP et l'héberger sur un dépôt github</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>YES</t>
   </si>
   <si>
     <t>-</t>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">MONTH : </t>
-  </si>
-  <si>
-    <t>05-2022 2022</t>
   </si>
   <si>
     <t>EMPLOYEE NAME</t>
@@ -1383,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -1392,24 +1389,24 @@
     </row>
     <row r="2" spans="1:7" customHeight="1" ht="21">
       <c r="B2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" customHeight="1" ht="18.75">
       <c r="B3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="35"/>
@@ -1426,7 +1423,7 @@
     </row>
     <row r="5" spans="1:7" customHeight="1" ht="15.75">
       <c r="B5" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -1436,25 +1433,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="F6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="G6" s="65" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="55"/>
@@ -1466,11 +1463,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
@@ -1478,7 +1475,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="60"/>
@@ -1490,11 +1487,11 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="58"/>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="15" spans="1:7" customHeight="1" ht="15.75">
       <c r="B15" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="17" spans="1:7" customHeight="1" ht="15.75">
       <c r="B17" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -1572,7 +1569,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -1582,10 +1579,10 @@
     </row>
     <row r="20" spans="1:7" customHeight="1" ht="20.25">
       <c r="B20" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
@@ -1594,10 +1591,10 @@
     </row>
     <row r="21" spans="1:7" customHeight="1" ht="15.75">
       <c r="B21" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="71"/>
@@ -1638,7 +1635,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
